--- a/Testdata/Non_Oncology/DataFiles/ManageQAData/ManageQADataPage_NonOnco_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManageQAData/ManageQADataPage_NonOnco_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManageQAData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237ED1D0-84AE-46FD-B9CB-214315C7F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DF66E-F645-4FE6-9D67-D1748FE0426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
   <si>
-    <t>StandardExcelReport-LIVEHTA Automation - Test_NonOncology_Automation_3-Clinical-2023_</t>
+    <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/Non_Oncology/DataFiles/ManageQAData/ManageQADataPage_NonOnco_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManageQAData/ManageQADataPage_NonOnco_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManageQAData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master_Branch\pse.autotest\Testdata\Non_Oncology\DataFiles\ManageQAData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DF66E-F645-4FE6-9D67-D1748FE0426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB948F2-3B64-4C0F-B6CE-0E0409439A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>Economic</t>
   </si>
@@ -88,9 +88,6 @@
     <t>pop2</t>
   </si>
   <si>
-    <t>QA_Population</t>
-  </si>
-  <si>
     <t>ExpectedFilenames</t>
   </si>
   <si>
@@ -119,6 +116,51 @@
   </si>
   <si>
     <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>LIVEHTA Automation - Test_NonOncology_Automation_3_radio_button</t>
+  </si>
+  <si>
+    <t>Clinical-Interventional</t>
+  </si>
+  <si>
+    <t>Clinical-RWE</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\ManageQAData\1stUpload\Cochrane RoB2 RRMM JA - Copy (1) - RWE.xlsx</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>pop4</t>
+  </si>
+  <si>
+    <t>Economic_radio_button</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>Quality of Life_radio_button</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_radio_button</t>
   </si>
 </sst>
 </file>
@@ -445,157 +487,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
         <v>9</v>
       </c>
     </row>
